--- a/项目文档/测试用例/全文语法助手测试用例-wly.xlsx
+++ b/项目文档/测试用例/全文语法助手测试用例-wly.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\C2\Citta\项目文档\测试用例\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\C2\项目文档\测试用例\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="功能测试点总览" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>测试功能点</t>
   </si>
@@ -28,18 +28,6 @@
     <t>测试项计数</t>
   </si>
   <si>
-    <t>算子设计器</t>
-  </si>
-  <si>
-    <t>算子挂件</t>
-  </si>
-  <si>
-    <t>单算子窗口</t>
-  </si>
-  <si>
-    <t>模型交互</t>
-  </si>
-  <si>
     <t>用例编号</t>
   </si>
   <si>
@@ -68,15 +56,15 @@
   </si>
   <si>
     <t>第一轮测试结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>打开全文语法助手查询界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>全文语法助手-打开</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -93,34 +81,327 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>双击全文语法助手按钮打开查询界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>左侧面板-IAO实验室-双击全文语法助手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PASS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>文丽颖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>全文语法助手-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>查询时间设置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询界面打开显示当前时间和当前时间减一年的时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上方时间查询命令可以实时修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开查询界面，展示当前时间和当前时间减一年的时间，并且可以修改查询时间，上方查询命令也可以修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询关键词设置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询界面打开显示查询关键词示例，可修改查询关键词</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示修改查询关键词，并且查询命令可以修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开查询界面，展示查询关键词示例，并且可以修改查询关键词，上方查询命令也可以修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次过滤条件设置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开默认显示一条二次过滤条件示例，并能够在上方文本框中显示命令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次过滤条件设置，生成相应的查询命令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择设置二次查询的条件，生成相应的查询命令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议类型选择</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择协议类型，生成相应的查询命令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认查询全部协议类型数据，可对查询协议类型进行更改，相应选择按钮发生改变</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选查询协议类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>同理，协议类型选择</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索范围、查询类型、数据类型选择选择</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击复制按钮，复制当前命令到剪切板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击复制按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全文查询条件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示queryclient和jar两种类型的查询命令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>全文语法助手-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>全文语法助手-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>全文语法助手-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>全文语法助手-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>全文语法助手-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>全文语法助手-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>全文语法助手插件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -195,15 +476,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -482,13 +763,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -501,38 +782,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>21</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-    </row>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -542,119 +808,244 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
-    <col min="4" max="4" width="54.109375" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" customWidth="1"/>
+    <col min="3" max="3" width="36.6328125" customWidth="1"/>
+    <col min="4" max="4" width="54.08984375" customWidth="1"/>
+    <col min="5" max="5" width="24.6328125" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -827,7 +1218,7 @@
       <c r="H40" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
